--- a/sh模型统计.xlsx
+++ b/sh模型统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="895">
   <si>
     <t>dt431</t>
   </si>
@@ -2672,6 +2672,33 @@
   </si>
   <si>
     <t>dt1422-电信-手机游戏-20190418-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-1天</t>
+  </si>
+  <si>
+    <t>dt1430-配资-20190419-全国</t>
+  </si>
+  <si>
+    <t>dt1432-股票-20190419-湖南</t>
+  </si>
+  <si>
+    <t>dt1433-手机游戏-20190419-V1-全国</t>
+  </si>
+  <si>
+    <t>dt1434-游戏-20190419-全国</t>
+  </si>
+  <si>
+    <t>dt1435-行业汇总-20190419-优化(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1436-POS-20190419-通用(全国)-7天</t>
+  </si>
+  <si>
+    <t>dt1437-餐饮培训-20190419-吴总(湖南)-1天</t>
+  </si>
+  <si>
+    <t>dt1438-成人教育-20190418-武总(江西、湖南、湖北、安徽)-1天</t>
+  </si>
+  <si>
+    <t>dt1439-汽车贸易-20190419-邢总(陕西省、青海省)-1天</t>
   </si>
 </sst>
 </file>
@@ -2680,9 +2707,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2690,92 +2717,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2793,9 +2734,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2809,29 +2842,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2852,7 +2879,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2864,7 +2915,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2876,13 +2927,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2894,13 +3017,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2912,55 +3041,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2972,67 +3059,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3046,6 +3073,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3056,21 +3131,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3094,8 +3154,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3110,39 +3170,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3151,10 +3178,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3163,133 +3190,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3640,10 +3667,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D457"/>
+  <dimension ref="A1:D466"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="B466" sqref="B466"/>
+      <selection activeCell="D432" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8614,6 +8641,150 @@
         <v>885</v>
       </c>
     </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="1" t="str">
+        <f t="shared" ref="A458:A465" si="4">LEFT(D458,FIND("-",D458)-1)</f>
+        <v>dt1430</v>
+      </c>
+      <c r="B458" s="1" t="str">
+        <f t="shared" ref="B458:B465" si="5">RIGHT(D458,LEN(D458)-FIND("-",D458))</f>
+        <v>配资-20190419-全国</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D458" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>dt1432</v>
+      </c>
+      <c r="B459" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>股票-20190419-湖南</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D459" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>dt1433</v>
+      </c>
+      <c r="B460" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>手机游戏-20190419-V1-全国</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D460" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>dt1434</v>
+      </c>
+      <c r="B461" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>游戏-20190419-全国</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D461" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>dt1435</v>
+      </c>
+      <c r="B462" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>行业汇总-20190419-优化(全国)-1天</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D462" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>dt1436</v>
+      </c>
+      <c r="B463" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>POS-20190419-通用(全国)-7天</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D463" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>dt1437</v>
+      </c>
+      <c r="B464" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>餐饮培训-20190419-吴总(湖南)-1天</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D464" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>dt1438</v>
+      </c>
+      <c r="B465" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>成人教育-20190418-武总(江西、湖南、湖北、安徽)-1天</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D465" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="1" t="str">
+        <f>LEFT(D466,FIND("-",D466)-1)</f>
+        <v>dt1439</v>
+      </c>
+      <c r="B466" s="1" t="str">
+        <f>RIGHT(D466,LEN(D466)-FIND("-",D466))</f>
+        <v>汽车贸易-20190419-邢总(陕西省、青海省)-1天</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D466" t="s">
+        <v>894</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/sh模型统计.xlsx
+++ b/sh模型统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="899">
   <si>
     <t>dt431</t>
   </si>
@@ -2699,6 +2699,18 @@
   </si>
   <si>
     <t>dt1439-汽车贸易-20190419-邢总(陕西省、青海省)-1天</t>
+  </si>
+  <si>
+    <t>dt1458-股票配资-20190422-全国</t>
+  </si>
+  <si>
+    <t>dt1459-成人教育-20190422-王总优化(湖南)-5天</t>
+  </si>
+  <si>
+    <t>dt1460-现金贷-20190422-晟总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1461-装修-20190422-邢总(四川、甘肃、黑龙江)-1天</t>
   </si>
 </sst>
 </file>
@@ -2707,9 +2719,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2717,20 +2729,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2742,58 +2740,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2813,22 +2764,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2841,8 +2786,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2856,9 +2869,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2879,36 +2891,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2921,67 +2903,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2993,13 +2915,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3017,13 +2939,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3035,7 +2981,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3047,19 +3029,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3103,20 +3115,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3136,17 +3145,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3178,10 +3190,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3190,133 +3202,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3667,7 +3679,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D466"/>
+  <dimension ref="A1:D470"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
       <selection activeCell="D432" sqref="D$1:D$1048576"/>
@@ -8643,11 +8655,11 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="1" t="str">
-        <f t="shared" ref="A458:A465" si="4">LEFT(D458,FIND("-",D458)-1)</f>
+        <f t="shared" ref="A458:A466" si="4">LEFT(D458,FIND("-",D458)-1)</f>
         <v>dt1430</v>
       </c>
       <c r="B458" s="1" t="str">
-        <f t="shared" ref="B458:B465" si="5">RIGHT(D458,LEN(D458)-FIND("-",D458))</f>
+        <f t="shared" ref="B458:B466" si="5">RIGHT(D458,LEN(D458)-FIND("-",D458))</f>
         <v>配资-20190419-全国</v>
       </c>
       <c r="C458" s="1" t="s">
@@ -8771,11 +8783,11 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="1" t="str">
-        <f>LEFT(D466,FIND("-",D466)-1)</f>
+        <f t="shared" si="4"/>
         <v>dt1439</v>
       </c>
       <c r="B466" s="1" t="str">
-        <f>RIGHT(D466,LEN(D466)-FIND("-",D466))</f>
+        <f t="shared" si="5"/>
         <v>汽车贸易-20190419-邢总(陕西省、青海省)-1天</v>
       </c>
       <c r="C466" s="1" t="s">
@@ -8783,6 +8795,70 @@
       </c>
       <c r="D466" t="s">
         <v>894</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="1" t="str">
+        <f>LEFT(D467,FIND("-",D467)-1)</f>
+        <v>dt1458</v>
+      </c>
+      <c r="B467" s="1" t="str">
+        <f>RIGHT(D467,LEN(D467)-FIND("-",D467))</f>
+        <v>股票配资-20190422-全国</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D467" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="1" t="str">
+        <f>LEFT(D468,FIND("-",D468)-1)</f>
+        <v>dt1459</v>
+      </c>
+      <c r="B468" s="1" t="str">
+        <f>RIGHT(D468,LEN(D468)-FIND("-",D468))</f>
+        <v>成人教育-20190422-王总优化(湖南)-5天</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D468" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="1" t="str">
+        <f>LEFT(D469,FIND("-",D469)-1)</f>
+        <v>dt1460</v>
+      </c>
+      <c r="B469" s="1" t="str">
+        <f>RIGHT(D469,LEN(D469)-FIND("-",D469))</f>
+        <v>现金贷-20190422-晟总(全国)-1天</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D469" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="1" t="str">
+        <f>LEFT(D470,FIND("-",D470)-1)</f>
+        <v>dt1461</v>
+      </c>
+      <c r="B470" s="1" t="str">
+        <f>RIGHT(D470,LEN(D470)-FIND("-",D470))</f>
+        <v>装修-20190422-邢总(四川、甘肃、黑龙江)-1天</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D470" t="s">
+        <v>898</v>
       </c>
     </row>
   </sheetData>

--- a/sh模型统计.xlsx
+++ b/sh模型统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="905">
   <si>
     <t>dt431</t>
   </si>
@@ -2711,6 +2711,24 @@
   </si>
   <si>
     <t>dt1461-装修-20190422-邢总(四川、甘肃、黑龙江)-1天</t>
+  </si>
+  <si>
+    <t>dt1466-投资理财G-20190423-全国</t>
+  </si>
+  <si>
+    <t>dt1467-手游G-20190423-全国</t>
+  </si>
+  <si>
+    <t>dt1468-餐饮加盟-20190423-吴总(全国)-2天</t>
+  </si>
+  <si>
+    <t>dt1469-餐饮加盟-20190423-邢总(河南、陕西、山西、四川、重庆、甘肃、湖北)-1天</t>
+  </si>
+  <si>
+    <t>dt1470-手机游戏-20190423-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-3天</t>
+  </si>
+  <si>
+    <t>dt1471-装修-20190423-邢总(陕西省)-3天</t>
   </si>
 </sst>
 </file>
@@ -2718,10 +2736,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2732,9 +2750,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2756,83 +2847,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2847,15 +2872,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2863,14 +2881,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2891,7 +2909,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2903,55 +3011,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2969,31 +3041,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3005,73 +3083,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3085,17 +3103,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3115,21 +3162,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3145,20 +3177,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3171,17 +3200,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3190,10 +3208,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3202,133 +3220,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3679,10 +3697,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D470"/>
+  <dimension ref="A1:D476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="D432" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
+      <selection activeCell="D444" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8655,11 +8673,11 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="1" t="str">
-        <f t="shared" ref="A458:A466" si="4">LEFT(D458,FIND("-",D458)-1)</f>
+        <f t="shared" ref="A458:A470" si="4">LEFT(D458,FIND("-",D458)-1)</f>
         <v>dt1430</v>
       </c>
       <c r="B458" s="1" t="str">
-        <f t="shared" ref="B458:B466" si="5">RIGHT(D458,LEN(D458)-FIND("-",D458))</f>
+        <f t="shared" ref="B458:B470" si="5">RIGHT(D458,LEN(D458)-FIND("-",D458))</f>
         <v>配资-20190419-全国</v>
       </c>
       <c r="C458" s="1" t="s">
@@ -8799,11 +8817,11 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="1" t="str">
-        <f>LEFT(D467,FIND("-",D467)-1)</f>
+        <f t="shared" si="4"/>
         <v>dt1458</v>
       </c>
       <c r="B467" s="1" t="str">
-        <f>RIGHT(D467,LEN(D467)-FIND("-",D467))</f>
+        <f t="shared" si="5"/>
         <v>股票配资-20190422-全国</v>
       </c>
       <c r="C467" s="1" t="s">
@@ -8815,11 +8833,11 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="1" t="str">
-        <f>LEFT(D468,FIND("-",D468)-1)</f>
+        <f t="shared" si="4"/>
         <v>dt1459</v>
       </c>
       <c r="B468" s="1" t="str">
-        <f>RIGHT(D468,LEN(D468)-FIND("-",D468))</f>
+        <f t="shared" si="5"/>
         <v>成人教育-20190422-王总优化(湖南)-5天</v>
       </c>
       <c r="C468" s="1" t="s">
@@ -8831,11 +8849,11 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="1" t="str">
-        <f>LEFT(D469,FIND("-",D469)-1)</f>
+        <f t="shared" si="4"/>
         <v>dt1460</v>
       </c>
       <c r="B469" s="1" t="str">
-        <f>RIGHT(D469,LEN(D469)-FIND("-",D469))</f>
+        <f t="shared" si="5"/>
         <v>现金贷-20190422-晟总(全国)-1天</v>
       </c>
       <c r="C469" s="1" t="s">
@@ -8847,11 +8865,11 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="1" t="str">
-        <f>LEFT(D470,FIND("-",D470)-1)</f>
+        <f t="shared" si="4"/>
         <v>dt1461</v>
       </c>
       <c r="B470" s="1" t="str">
-        <f>RIGHT(D470,LEN(D470)-FIND("-",D470))</f>
+        <f t="shared" si="5"/>
         <v>装修-20190422-邢总(四川、甘肃、黑龙江)-1天</v>
       </c>
       <c r="C470" s="1" t="s">
@@ -8859,6 +8877,102 @@
       </c>
       <c r="D470" t="s">
         <v>898</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="1" t="str">
+        <f t="shared" ref="A471:A476" si="6">LEFT(D471,FIND("-",D471)-1)</f>
+        <v>dt1466</v>
+      </c>
+      <c r="B471" s="1" t="str">
+        <f t="shared" ref="B471:B476" si="7">RIGHT(D471,LEN(D471)-FIND("-",D471))</f>
+        <v>投资理财G-20190423-全国</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D471" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>dt1467</v>
+      </c>
+      <c r="B472" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>手游G-20190423-全国</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D472" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>dt1468</v>
+      </c>
+      <c r="B473" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>餐饮加盟-20190423-吴总(全国)-2天</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D473" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>dt1469</v>
+      </c>
+      <c r="B474" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>餐饮加盟-20190423-邢总(河南、陕西、山西、四川、重庆、甘肃、湖北)-1天</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D474" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>dt1470</v>
+      </c>
+      <c r="B475" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>手机游戏-20190423-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-3天</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D475" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>dt1471</v>
+      </c>
+      <c r="B476" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>装修-20190423-邢总(陕西省)-3天</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D476" t="s">
+        <v>904</v>
       </c>
     </row>
   </sheetData>

--- a/sh模型统计.xlsx
+++ b/sh模型统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="913">
   <si>
     <t>dt431</t>
   </si>
@@ -2729,6 +2729,30 @@
   </si>
   <si>
     <t>dt1471-装修-20190423-邢总(陕西省)-3天</t>
+  </si>
+  <si>
+    <t>dt1477-贷款G-20190424-河南郑州</t>
+  </si>
+  <si>
+    <t>dt1478-股民G-20190424-全国（除河北）</t>
+  </si>
+  <si>
+    <t>dt1479-股票G-20190424-除去上海，广东，北京，新疆，西藏</t>
+  </si>
+  <si>
+    <t>dt1480-广场舞G-20190424-全国</t>
+  </si>
+  <si>
+    <t>dt1481-理财G-20190424-全国</t>
+  </si>
+  <si>
+    <t>dt1482-手机游戏G-20190424-全国</t>
+  </si>
+  <si>
+    <t>dt1483-育婴健身G-20190424-全国</t>
+  </si>
+  <si>
+    <t>dt1484-手机游戏-20190424-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-3天</t>
   </si>
 </sst>
 </file>
@@ -2736,9 +2760,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -2751,6 +2775,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2758,22 +2789,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2787,6 +2803,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -2794,30 +2825,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2826,6 +2844,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2847,17 +2872,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2871,9 +2895,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2881,14 +2904,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2909,7 +2933,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2921,7 +2963,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2933,7 +2987,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2945,19 +3065,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2969,43 +3077,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3017,19 +3095,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3047,49 +3113,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3106,19 +3130,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3138,15 +3175,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3158,21 +3186,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3194,9 +3207,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3208,10 +3232,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3220,16 +3244,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3238,115 +3262,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3697,7 +3721,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D476"/>
+  <dimension ref="A1:D484"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
       <selection activeCell="D444" sqref="D$1:D$1048576"/>
@@ -8975,6 +8999,134 @@
         <v>904</v>
       </c>
     </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="1" t="str">
+        <f t="shared" ref="A477:A484" si="8">LEFT(D477,FIND("-",D477)-1)</f>
+        <v>dt1477</v>
+      </c>
+      <c r="B477" s="1" t="str">
+        <f t="shared" ref="B477:B484" si="9">RIGHT(D477,LEN(D477)-FIND("-",D477))</f>
+        <v>贷款G-20190424-河南郑州</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D477" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>dt1478</v>
+      </c>
+      <c r="B478" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>股民G-20190424-全国（除河北）</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D478" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>dt1479</v>
+      </c>
+      <c r="B479" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>股票G-20190424-除去上海，广东，北京，新疆，西藏</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D479" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>dt1480</v>
+      </c>
+      <c r="B480" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>广场舞G-20190424-全国</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D480" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>dt1481</v>
+      </c>
+      <c r="B481" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>理财G-20190424-全国</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D481" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>dt1482</v>
+      </c>
+      <c r="B482" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>手机游戏G-20190424-全国</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D482" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>dt1483</v>
+      </c>
+      <c r="B483" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>育婴健身G-20190424-全国</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D483" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>dt1484</v>
+      </c>
+      <c r="B484" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>手机游戏-20190424-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-3天</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D484" t="s">
+        <v>912</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/sh模型统计.xlsx
+++ b/sh模型统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="969">
   <si>
     <t>dt431</t>
   </si>
@@ -2635,124 +2635,292 @@
     <t>中医养生-20190415-邢总(全国)-1天</t>
   </si>
   <si>
-    <t>dt1394-保险-20190416-V1-全国</t>
-  </si>
-  <si>
-    <t>dt1395-期货-20190416-全国</t>
-  </si>
-  <si>
-    <t>dt1396-POS-20190416-推广页(全国)-2天</t>
-  </si>
-  <si>
-    <t>dt1397-汽车-20190416-邢总(陕西省)-1天</t>
-  </si>
-  <si>
-    <t>dt1398-消防教育-20190416-华总(上海、河南、河北、江苏、四川、山东、辽宁、吉林、内蒙古)-1天</t>
-  </si>
-  <si>
-    <t>dt1399-装修-20190415-李总(天津)-2天</t>
-  </si>
-  <si>
-    <t>dt1416-电信-比亚迪a-20190418-全国</t>
-  </si>
-  <si>
-    <t>dt1417-电信-比亚迪b-20190418-全国</t>
-  </si>
-  <si>
-    <t>dt1418-电信-配资-20190418-V1-全国</t>
-  </si>
-  <si>
-    <t>dt1419-电信-POS推广-20190418-优化(全国)-1天</t>
-  </si>
-  <si>
-    <t>dt1420-电信-昌骏汽车-20190418-邢总(陕西省)-1天</t>
-  </si>
-  <si>
-    <t>dt1421-电信-成人教育-20190418-王总优化(湖南)-3天</t>
-  </si>
-  <si>
-    <t>dt1422-电信-手机游戏-20190418-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-1天</t>
-  </si>
-  <si>
-    <t>dt1430-配资-20190419-全国</t>
-  </si>
-  <si>
-    <t>dt1432-股票-20190419-湖南</t>
-  </si>
-  <si>
-    <t>dt1433-手机游戏-20190419-V1-全国</t>
-  </si>
-  <si>
-    <t>dt1434-游戏-20190419-全国</t>
-  </si>
-  <si>
-    <t>dt1435-行业汇总-20190419-优化(全国)-1天</t>
-  </si>
-  <si>
-    <t>dt1436-POS-20190419-通用(全国)-7天</t>
-  </si>
-  <si>
-    <t>dt1437-餐饮培训-20190419-吴总(湖南)-1天</t>
-  </si>
-  <si>
-    <t>dt1438-成人教育-20190418-武总(江西、湖南、湖北、安徽)-1天</t>
-  </si>
-  <si>
-    <t>dt1439-汽车贸易-20190419-邢总(陕西省、青海省)-1天</t>
-  </si>
-  <si>
-    <t>dt1458-股票配资-20190422-全国</t>
-  </si>
-  <si>
-    <t>dt1459-成人教育-20190422-王总优化(湖南)-5天</t>
-  </si>
-  <si>
-    <t>dt1460-现金贷-20190422-晟总(全国)-1天</t>
-  </si>
-  <si>
-    <t>dt1461-装修-20190422-邢总(四川、甘肃、黑龙江)-1天</t>
-  </si>
-  <si>
-    <t>dt1466-投资理财G-20190423-全国</t>
-  </si>
-  <si>
-    <t>dt1467-手游G-20190423-全国</t>
-  </si>
-  <si>
-    <t>dt1468-餐饮加盟-20190423-吴总(全国)-2天</t>
-  </si>
-  <si>
-    <t>dt1469-餐饮加盟-20190423-邢总(河南、陕西、山西、四川、重庆、甘肃、湖北)-1天</t>
-  </si>
-  <si>
-    <t>dt1470-手机游戏-20190423-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-3天</t>
-  </si>
-  <si>
-    <t>dt1471-装修-20190423-邢总(陕西省)-3天</t>
-  </si>
-  <si>
-    <t>dt1477-贷款G-20190424-河南郑州</t>
-  </si>
-  <si>
-    <t>dt1478-股民G-20190424-全国（除河北）</t>
-  </si>
-  <si>
-    <t>dt1479-股票G-20190424-除去上海，广东，北京，新疆，西藏</t>
-  </si>
-  <si>
-    <t>dt1480-广场舞G-20190424-全国</t>
-  </si>
-  <si>
-    <t>dt1481-理财G-20190424-全国</t>
-  </si>
-  <si>
-    <t>dt1482-手机游戏G-20190424-全国</t>
-  </si>
-  <si>
-    <t>dt1483-育婴健身G-20190424-全国</t>
-  </si>
-  <si>
-    <t>dt1484-手机游戏-20190424-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-3天</t>
+    <t>dt1394</t>
+  </si>
+  <si>
+    <t>保险-20190416-V1-全国</t>
+  </si>
+  <si>
+    <t>dt1395</t>
+  </si>
+  <si>
+    <t>期货-20190416-全国</t>
+  </si>
+  <si>
+    <t>dt1396</t>
+  </si>
+  <si>
+    <t>POS-20190416-推广页(全国)-2天</t>
+  </si>
+  <si>
+    <t>dt1397</t>
+  </si>
+  <si>
+    <t>汽车-20190416-邢总(陕西省)-1天</t>
+  </si>
+  <si>
+    <t>dt1398</t>
+  </si>
+  <si>
+    <t>消防教育-20190416-华总(上海、河南、河北、江苏、四川、山东、辽宁、吉林、内蒙古)-1天</t>
+  </si>
+  <si>
+    <t>dt1399</t>
+  </si>
+  <si>
+    <t>装修-20190415-李总(天津)-2天</t>
+  </si>
+  <si>
+    <t>dt1416</t>
+  </si>
+  <si>
+    <t>电信-比亚迪a-20190418-全国</t>
+  </si>
+  <si>
+    <t>dt1417</t>
+  </si>
+  <si>
+    <t>电信-比亚迪b-20190418-全国</t>
+  </si>
+  <si>
+    <t>dt1418</t>
+  </si>
+  <si>
+    <t>电信-配资-20190418-V1-全国</t>
+  </si>
+  <si>
+    <t>dt1419</t>
+  </si>
+  <si>
+    <t>电信-POS推广-20190418-优化(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1420</t>
+  </si>
+  <si>
+    <t>电信-昌骏汽车-20190418-邢总(陕西省)-1天</t>
+  </si>
+  <si>
+    <t>dt1421</t>
+  </si>
+  <si>
+    <t>电信-成人教育-20190418-王总优化(湖南)-3天</t>
+  </si>
+  <si>
+    <t>dt1422</t>
+  </si>
+  <si>
+    <t>电信-手机游戏-20190418-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-1天</t>
+  </si>
+  <si>
+    <t>dt1430</t>
+  </si>
+  <si>
+    <t>配资-20190419-全国</t>
+  </si>
+  <si>
+    <t>dt1432</t>
+  </si>
+  <si>
+    <t>股票-20190419-湖南</t>
+  </si>
+  <si>
+    <t>dt1433</t>
+  </si>
+  <si>
+    <t>手机游戏-20190419-V1-全国</t>
+  </si>
+  <si>
+    <t>dt1434</t>
+  </si>
+  <si>
+    <t>游戏-20190419-全国</t>
+  </si>
+  <si>
+    <t>dt1435</t>
+  </si>
+  <si>
+    <t>行业汇总-20190419-优化(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1436</t>
+  </si>
+  <si>
+    <t>POS-20190419-通用(全国)-7天</t>
+  </si>
+  <si>
+    <t>dt1437</t>
+  </si>
+  <si>
+    <t>餐饮培训-20190419-吴总(湖南)-1天</t>
+  </si>
+  <si>
+    <t>dt1438</t>
+  </si>
+  <si>
+    <t>成人教育-20190418-武总(江西、湖南、湖北、安徽)-1天</t>
+  </si>
+  <si>
+    <t>dt1439</t>
+  </si>
+  <si>
+    <t>汽车贸易-20190419-邢总(陕西省、青海省)-1天</t>
+  </si>
+  <si>
+    <t>dt1458</t>
+  </si>
+  <si>
+    <t>股票配资-20190422-全国</t>
+  </si>
+  <si>
+    <t>dt1459</t>
+  </si>
+  <si>
+    <t>成人教育-20190422-王总优化(湖南)-5天</t>
+  </si>
+  <si>
+    <t>dt1460</t>
+  </si>
+  <si>
+    <t>现金贷-20190422-晟总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1461</t>
+  </si>
+  <si>
+    <t>装修-20190422-邢总(四川、甘肃、黑龙江)-1天</t>
+  </si>
+  <si>
+    <t>dt1466</t>
+  </si>
+  <si>
+    <t>投资理财G-20190423-全国</t>
+  </si>
+  <si>
+    <t>dt1467</t>
+  </si>
+  <si>
+    <t>手游G-20190423-全国</t>
+  </si>
+  <si>
+    <t>dt1468</t>
+  </si>
+  <si>
+    <t>餐饮加盟-20190423-吴总(全国)-2天</t>
+  </si>
+  <si>
+    <t>dt1469</t>
+  </si>
+  <si>
+    <t>餐饮加盟-20190423-邢总(河南、陕西、山西、四川、重庆、甘肃、湖北)-1天</t>
+  </si>
+  <si>
+    <t>dt1470</t>
+  </si>
+  <si>
+    <t>手机游戏-20190423-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-3天</t>
+  </si>
+  <si>
+    <t>dt1471</t>
+  </si>
+  <si>
+    <t>装修-20190423-邢总(陕西省)-3天</t>
+  </si>
+  <si>
+    <t>dt1477</t>
+  </si>
+  <si>
+    <t>贷款G-20190424-河南郑州</t>
+  </si>
+  <si>
+    <t>dt1478</t>
+  </si>
+  <si>
+    <t>股民G-20190424-全国（除河北）</t>
+  </si>
+  <si>
+    <t>dt1479</t>
+  </si>
+  <si>
+    <t>股票G-20190424-除去上海，广东，北京，新疆，西藏</t>
+  </si>
+  <si>
+    <t>dt1480</t>
+  </si>
+  <si>
+    <t>广场舞G-20190424-全国</t>
+  </si>
+  <si>
+    <t>dt1481</t>
+  </si>
+  <si>
+    <t>理财G-20190424-全国</t>
+  </si>
+  <si>
+    <t>dt1482</t>
+  </si>
+  <si>
+    <t>手机游戏G-20190424-全国</t>
+  </si>
+  <si>
+    <t>dt1483</t>
+  </si>
+  <si>
+    <t>育婴健身G-20190424-全国</t>
+  </si>
+  <si>
+    <t>dt1484</t>
+  </si>
+  <si>
+    <t>手机游戏-20190424-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-3天</t>
+  </si>
+  <si>
+    <t>dt1498</t>
+  </si>
+  <si>
+    <t>股票G-20190425-全国</t>
+  </si>
+  <si>
+    <t>dt1499</t>
+  </si>
+  <si>
+    <t>股票配资CG-20190425-全国</t>
+  </si>
+  <si>
+    <t>dt1500</t>
+  </si>
+  <si>
+    <t>汽车G-20190425-全国</t>
+  </si>
+  <si>
+    <t>dt1501</t>
+  </si>
+  <si>
+    <t>投资理财GJ-20190425-全国</t>
+  </si>
+  <si>
+    <t>dt1502</t>
+  </si>
+  <si>
+    <t>k12-20190425-曹总(湖南、湖北、江西、安徽)-1天</t>
+  </si>
+  <si>
+    <t>dt1503</t>
+  </si>
+  <si>
+    <t>保健-20190425-邢总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1504</t>
+  </si>
+  <si>
+    <t>贷款-20190425-先总(广东、湖南、湖北、浙江、江苏、四川、陕西)-1天</t>
+  </si>
+  <si>
+    <t>dt1505</t>
+  </si>
+  <si>
+    <t>交友-20190425-韩总(湖南)-1天</t>
   </si>
 </sst>
 </file>
@@ -2761,8 +2929,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -2775,13 +2943,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2789,7 +2950,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2818,8 +2979,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2833,47 +3024,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2896,7 +3048,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2905,14 +3081,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2933,13 +3101,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2951,7 +3155,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2963,49 +3167,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3023,7 +3185,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3035,13 +3251,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3059,61 +3275,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3130,8 +3298,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3141,21 +3309,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3171,6 +3324,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3205,6 +3367,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3212,15 +3389,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3232,10 +3400,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3244,137 +3412,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3400,6 +3568,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3721,16 +3892,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D484"/>
+  <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="D444" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A462" workbookViewId="0">
+      <selection activeCell="B487" sqref="B487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="189.75" customWidth="1"/>
-    <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -8487,644 +8658,532 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" s="1" customFormat="1" spans="1:4">
-      <c r="A445" s="1" t="str">
-        <f t="shared" ref="A445:A451" si="0">LEFT(D445,FIND("-",D445)-1)</f>
-        <v>dt1394</v>
-      </c>
-      <c r="B445" s="1" t="str">
-        <f t="shared" ref="B445:B451" si="1">RIGHT(D445,LEN(D445)-FIND("-",D445))</f>
-        <v>保险-20190416-V1-全国</v>
+    <row r="445" s="1" customFormat="1" spans="1:3">
+      <c r="A445" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>874</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D445" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="446" s="1" customFormat="1" spans="1:4">
-      <c r="A446" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>dt1395</v>
-      </c>
-      <c r="B446" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>期货-20190416-全国</v>
+    </row>
+    <row r="446" s="1" customFormat="1" spans="1:3">
+      <c r="A446" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>876</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D446" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="447" s="1" customFormat="1" spans="1:4">
-      <c r="A447" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>dt1396</v>
-      </c>
-      <c r="B447" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>POS-20190416-推广页(全国)-2天</v>
+    </row>
+    <row r="447" s="1" customFormat="1" spans="1:3">
+      <c r="A447" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>878</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D447" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="448" s="1" customFormat="1" spans="1:4">
-      <c r="A448" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>dt1397</v>
-      </c>
-      <c r="B448" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>汽车-20190416-邢总(陕西省)-1天</v>
+    </row>
+    <row r="448" s="1" customFormat="1" spans="1:3">
+      <c r="A448" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>880</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D448" s="1" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="449" s="1" customFormat="1" spans="1:4">
-      <c r="A449" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>dt1398</v>
-      </c>
-      <c r="B449" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>消防教育-20190416-华总(上海、河南、河北、江苏、四川、山东、辽宁、吉林、内蒙古)-1天</v>
+    </row>
+    <row r="449" s="1" customFormat="1" spans="1:3">
+      <c r="A449" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>882</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D449" s="1" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="450" s="1" customFormat="1" spans="1:4">
-      <c r="A450" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>dt1399</v>
-      </c>
-      <c r="B450" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>装修-20190415-李总(天津)-2天</v>
+    </row>
+    <row r="450" s="1" customFormat="1" spans="1:3">
+      <c r="A450" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>884</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D450" s="1" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4">
-      <c r="A451" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>dt1416</v>
-      </c>
-      <c r="B451" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>电信-比亚迪a-20190418-全国</v>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>886</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D451" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4">
-      <c r="A452" s="1" t="str">
-        <f t="shared" ref="A452:A459" si="2">LEFT(D452,FIND("-",D452)-1)</f>
-        <v>dt1417</v>
-      </c>
-      <c r="B452" s="1" t="str">
-        <f t="shared" ref="B452:B459" si="3">RIGHT(D452,LEN(D452)-FIND("-",D452))</f>
-        <v>电信-比亚迪b-20190418-全国</v>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>888</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D452" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4">
-      <c r="A453" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>dt1418</v>
-      </c>
-      <c r="B453" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>电信-配资-20190418-V1-全国</v>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>890</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D453" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4">
-      <c r="A454" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>dt1419</v>
-      </c>
-      <c r="B454" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>电信-POS推广-20190418-优化(全国)-1天</v>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>892</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D454" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4">
-      <c r="A455" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>dt1420</v>
-      </c>
-      <c r="B455" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>电信-昌骏汽车-20190418-邢总(陕西省)-1天</v>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>894</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D455" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4">
-      <c r="A456" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>dt1421</v>
-      </c>
-      <c r="B456" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>电信-成人教育-20190418-王总优化(湖南)-3天</v>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>896</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D456" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4">
-      <c r="A457" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>dt1422</v>
-      </c>
-      <c r="B457" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>电信-手机游戏-20190418-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-1天</v>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>898</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D457" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4">
-      <c r="A458" s="1" t="str">
-        <f t="shared" ref="A458:A470" si="4">LEFT(D458,FIND("-",D458)-1)</f>
-        <v>dt1430</v>
-      </c>
-      <c r="B458" s="1" t="str">
-        <f t="shared" ref="B458:B470" si="5">RIGHT(D458,LEN(D458)-FIND("-",D458))</f>
-        <v>配资-20190419-全国</v>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>900</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D458" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4">
-      <c r="A459" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>dt1432</v>
-      </c>
-      <c r="B459" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>股票-20190419-湖南</v>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>902</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D459" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4">
-      <c r="A460" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>dt1433</v>
-      </c>
-      <c r="B460" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>手机游戏-20190419-V1-全国</v>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>904</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D460" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4">
-      <c r="A461" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>dt1434</v>
-      </c>
-      <c r="B461" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>游戏-20190419-全国</v>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>906</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D461" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4">
-      <c r="A462" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>dt1435</v>
-      </c>
-      <c r="B462" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>行业汇总-20190419-优化(全国)-1天</v>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>908</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D462" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4">
-      <c r="A463" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>dt1436</v>
-      </c>
-      <c r="B463" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>POS-20190419-通用(全国)-7天</v>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>910</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D463" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4">
-      <c r="A464" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>dt1437</v>
-      </c>
-      <c r="B464" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>餐饮培训-20190419-吴总(湖南)-1天</v>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>912</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D464" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4">
-      <c r="A465" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>dt1438</v>
-      </c>
-      <c r="B465" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>成人教育-20190418-武总(江西、湖南、湖北、安徽)-1天</v>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>914</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D465" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4">
-      <c r="A466" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>dt1439</v>
-      </c>
-      <c r="B466" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>汽车贸易-20190419-邢总(陕西省、青海省)-1天</v>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>916</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D466" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4">
-      <c r="A467" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>dt1458</v>
-      </c>
-      <c r="B467" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>股票配资-20190422-全国</v>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>918</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D467" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4">
-      <c r="A468" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>dt1459</v>
-      </c>
-      <c r="B468" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>成人教育-20190422-王总优化(湖南)-5天</v>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>920</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D468" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4">
-      <c r="A469" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>dt1460</v>
-      </c>
-      <c r="B469" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>现金贷-20190422-晟总(全国)-1天</v>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>922</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D469" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4">
-      <c r="A470" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>dt1461</v>
-      </c>
-      <c r="B470" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>装修-20190422-邢总(四川、甘肃、黑龙江)-1天</v>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>924</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D470" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4">
-      <c r="A471" s="1" t="str">
-        <f t="shared" ref="A471:A476" si="6">LEFT(D471,FIND("-",D471)-1)</f>
-        <v>dt1466</v>
-      </c>
-      <c r="B471" s="1" t="str">
-        <f t="shared" ref="B471:B476" si="7">RIGHT(D471,LEN(D471)-FIND("-",D471))</f>
-        <v>投资理财G-20190423-全国</v>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>926</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D471" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4">
-      <c r="A472" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>dt1467</v>
-      </c>
-      <c r="B472" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>手游G-20190423-全国</v>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>928</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D472" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4">
-      <c r="A473" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>dt1468</v>
-      </c>
-      <c r="B473" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>餐饮加盟-20190423-吴总(全国)-2天</v>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>930</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D473" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4">
-      <c r="A474" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>dt1469</v>
-      </c>
-      <c r="B474" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>餐饮加盟-20190423-邢总(河南、陕西、山西、四川、重庆、甘肃、湖北)-1天</v>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>932</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D474" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4">
-      <c r="A475" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>dt1470</v>
-      </c>
-      <c r="B475" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>手机游戏-20190423-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-3天</v>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>934</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D475" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4">
-      <c r="A476" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>dt1471</v>
-      </c>
-      <c r="B476" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>装修-20190423-邢总(陕西省)-3天</v>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>936</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D476" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4">
-      <c r="A477" s="1" t="str">
-        <f t="shared" ref="A477:A484" si="8">LEFT(D477,FIND("-",D477)-1)</f>
-        <v>dt1477</v>
-      </c>
-      <c r="B477" s="1" t="str">
-        <f t="shared" ref="B477:B484" si="9">RIGHT(D477,LEN(D477)-FIND("-",D477))</f>
-        <v>贷款G-20190424-河南郑州</v>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>938</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D477" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4">
-      <c r="A478" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>dt1478</v>
-      </c>
-      <c r="B478" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>股民G-20190424-全国（除河北）</v>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>940</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D478" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4">
-      <c r="A479" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>dt1479</v>
-      </c>
-      <c r="B479" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>股票G-20190424-除去上海，广东，北京，新疆，西藏</v>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>942</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D479" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4">
-      <c r="A480" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>dt1480</v>
-      </c>
-      <c r="B480" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>广场舞G-20190424-全国</v>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>944</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D480" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4">
-      <c r="A481" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>dt1481</v>
-      </c>
-      <c r="B481" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>理财G-20190424-全国</v>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>946</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D481" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4">
-      <c r="A482" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>dt1482</v>
-      </c>
-      <c r="B482" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>手机游戏G-20190424-全国</v>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>948</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D482" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4">
-      <c r="A483" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>dt1483</v>
-      </c>
-      <c r="B483" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>育婴健身G-20190424-全国</v>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>950</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D483" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4">
-      <c r="A484" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>dt1484</v>
-      </c>
-      <c r="B484" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>手机游戏-20190424-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-3天</v>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>952</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D484" t="s">
-        <v>912</v>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="B485" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="C485" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="B486" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="C486" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="9" t="s">
+        <v>957</v>
+      </c>
+      <c r="B487" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="C487" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="B488" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="C488" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="B489" s="9" t="s">
+        <v>962</v>
+      </c>
+      <c r="C489" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="B490" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="C490" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="B491" s="9" t="s">
+        <v>966</v>
+      </c>
+      <c r="C491" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="B492" s="9" t="s">
+        <v>968</v>
+      </c>
+      <c r="C492" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/sh模型统计.xlsx
+++ b/sh模型统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="973">
   <si>
     <t>dt431</t>
   </si>
@@ -2921,6 +2921,18 @@
   </si>
   <si>
     <t>交友-20190425-韩总(湖南)-1天</t>
+  </si>
+  <si>
+    <t>dt1511</t>
+  </si>
+  <si>
+    <t>POS推广-20190426-优化(全国)-2天</t>
+  </si>
+  <si>
+    <t>dt1512</t>
+  </si>
+  <si>
+    <t>股票-20190426-华总(全国)-1天</t>
   </si>
 </sst>
 </file>
@@ -2928,8 +2940,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2956,24 +2968,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2988,24 +2992,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3019,13 +3031,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3047,32 +3052,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3083,6 +3072,29 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3101,7 +3113,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3113,97 +3215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3221,55 +3233,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3281,7 +3275,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3295,20 +3307,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3324,15 +3333,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3367,17 +3367,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3392,6 +3386,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3400,10 +3412,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3412,19 +3424,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3433,116 +3445,116 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3568,9 +3580,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3892,10 +3901,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D492"/>
+  <dimension ref="A1:D494"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A462" workbookViewId="0">
-      <selection activeCell="B487" sqref="B487"/>
+      <selection activeCell="A495" sqref="$A495:$XFD495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9099,90 +9108,112 @@
       </c>
     </row>
     <row r="485" spans="1:3">
-      <c r="A485" s="9" t="s">
+      <c r="A485" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="B485" s="9" t="s">
+      <c r="B485" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="C485" s="9" t="s">
+      <c r="C485" s="1" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="486" spans="1:3">
-      <c r="A486" s="9" t="s">
+      <c r="A486" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="B486" s="9" t="s">
+      <c r="B486" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="C486" s="9" t="s">
+      <c r="C486" s="1" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="487" spans="1:3">
-      <c r="A487" s="9" t="s">
+      <c r="A487" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="B487" s="9" t="s">
+      <c r="B487" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="C487" s="9" t="s">
+      <c r="C487" s="1" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="488" spans="1:3">
-      <c r="A488" s="9" t="s">
+      <c r="A488" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="B488" s="9" t="s">
+      <c r="B488" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="C488" s="9" t="s">
+      <c r="C488" s="1" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="489" spans="1:3">
-      <c r="A489" s="9" t="s">
+      <c r="A489" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="B489" s="9" t="s">
+      <c r="B489" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="C489" s="9" t="s">
+      <c r="C489" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:3">
-      <c r="A490" s="9" t="s">
+      <c r="A490" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="B490" s="9" t="s">
+      <c r="B490" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="C490" s="9" t="s">
+      <c r="C490" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:3">
-      <c r="A491" s="9" t="s">
+      <c r="A491" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="B491" s="9" t="s">
+      <c r="B491" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="C491" s="9" t="s">
+      <c r="C491" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:3">
-      <c r="A492" s="9" t="s">
+      <c r="A492" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="B492" s="9" t="s">
+      <c r="B492" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="C492" s="9" t="s">
+      <c r="C492" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C494" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/sh模型统计.xlsx
+++ b/sh模型统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="975">
   <si>
     <t>dt431</t>
   </si>
@@ -2933,6 +2933,12 @@
   </si>
   <si>
     <t>股票-20190426-华总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1527</t>
+  </si>
+  <si>
+    <t>POS-20190428-综合重复率低(全国)-5天</t>
   </si>
 </sst>
 </file>
@@ -2941,8 +2947,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -2954,77 +2960,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3045,10 +2985,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3061,13 +3015,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3075,9 +3028,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3097,6 +3056,53 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -3113,13 +3119,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3131,13 +3245,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3155,49 +3275,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3209,91 +3299,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3304,6 +3310,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3352,17 +3382,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3386,24 +3410,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3412,10 +3418,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3424,137 +3430,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3580,6 +3586,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3901,10 +3910,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D494"/>
+  <dimension ref="A1:D495"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A462" workbookViewId="0">
-      <selection activeCell="A495" sqref="$A495:$XFD495"/>
+      <selection activeCell="A495" sqref="A495:C495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9217,6 +9226,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="B495" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="C495" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/sh模型统计.xlsx
+++ b/sh模型统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="981">
   <si>
     <t>dt431</t>
   </si>
@@ -2939,6 +2939,24 @@
   </si>
   <si>
     <t>POS-20190428-综合重复率低(全国)-5天</t>
+  </si>
+  <si>
+    <t>dt1531</t>
+  </si>
+  <si>
+    <t>成人教育-20190429-武总(河南)-5天</t>
+  </si>
+  <si>
+    <t>dt1532</t>
+  </si>
+  <si>
+    <t>股票-20190429-霸总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1533</t>
+  </si>
+  <si>
+    <t>消防-20190429-曹总(全国)-1天</t>
   </si>
 </sst>
 </file>
@@ -2946,23 +2964,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2976,11 +2986,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3000,72 +3070,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3089,8 +3099,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3119,13 +3137,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3137,7 +3203,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3155,7 +3251,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3167,91 +3281,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3269,37 +3305,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3313,11 +3331,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3337,6 +3361,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3348,36 +3387,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3410,6 +3419,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3418,10 +3436,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3430,133 +3448,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3910,10 +3928,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D495"/>
+  <dimension ref="A1:D498"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A462" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495:C495"/>
+      <selection activeCell="A496" sqref="A496:C498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9227,13 +9245,46 @@
       </c>
     </row>
     <row r="495" spans="1:3">
-      <c r="A495" s="9" t="s">
+      <c r="A495" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="B495" s="9" t="s">
+      <c r="B495" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="C495" s="9" t="s">
+      <c r="C495" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="B496" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="C496" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="B497" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="C497" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="9" t="s">
+        <v>979</v>
+      </c>
+      <c r="B498" s="9" t="s">
+        <v>980</v>
+      </c>
+      <c r="C498" s="9" t="s">
         <v>2</v>
       </c>
     </row>

--- a/sh模型统计.xlsx
+++ b/sh模型统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="987">
   <si>
     <t>dt431</t>
   </si>
@@ -2957,6 +2957,24 @@
   </si>
   <si>
     <t>消防-20190429-曹总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1541</t>
+  </si>
+  <si>
+    <t>投资理财BG-全国-1天-2w</t>
+  </si>
+  <si>
+    <t>dt1542</t>
+  </si>
+  <si>
+    <t>消防-20190430-新总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1543</t>
+  </si>
+  <si>
+    <t>信用卡-20190430-先总(广东、江西、湖南)-1天</t>
   </si>
 </sst>
 </file>
@@ -2964,10 +2982,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2980,16 +2998,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3000,9 +3019,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3016,15 +3034,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3038,14 +3048,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -3054,9 +3056,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3069,8 +3109,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3084,14 +3125,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3100,23 +3133,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3137,7 +3155,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3149,37 +3185,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3203,13 +3221,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3221,13 +3263,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3239,7 +3293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3251,19 +3305,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3275,49 +3335,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3328,6 +3346,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3346,36 +3388,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3387,15 +3399,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3420,11 +3423,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3436,10 +3454,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3448,133 +3466,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3928,10 +3946,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D498"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A462" workbookViewId="0">
-      <selection activeCell="A496" sqref="A496:C498"/>
+      <selection activeCell="A499" sqref="A499:C501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9256,35 +9274,68 @@
       </c>
     </row>
     <row r="496" spans="1:3">
-      <c r="A496" s="9" t="s">
+      <c r="A496" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="B496" s="9" t="s">
+      <c r="B496" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="C496" s="9" t="s">
+      <c r="C496" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:3">
-      <c r="A497" s="9" t="s">
+      <c r="A497" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="B497" s="9" t="s">
+      <c r="B497" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="C497" s="9" t="s">
+      <c r="C497" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:3">
-      <c r="A498" s="9" t="s">
+      <c r="A498" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="B498" s="9" t="s">
+      <c r="B498" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="C498" s="9" t="s">
+      <c r="C498" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="9" t="s">
+        <v>981</v>
+      </c>
+      <c r="B499" s="9" t="s">
+        <v>982</v>
+      </c>
+      <c r="C499" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="B500" s="9" t="s">
+        <v>984</v>
+      </c>
+      <c r="C500" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="B501" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="C501" s="9" t="s">
         <v>2</v>
       </c>
     </row>

--- a/sh模型统计.xlsx
+++ b/sh模型统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="991">
   <si>
     <t>dt431</t>
   </si>
@@ -2975,6 +2975,18 @@
   </si>
   <si>
     <t>信用卡-20190430-先总(广东、江西、湖南)-1天</t>
+  </si>
+  <si>
+    <t>dt1555</t>
+  </si>
+  <si>
+    <t>汽车G-20190505-全国</t>
+  </si>
+  <si>
+    <t>dt1556</t>
+  </si>
+  <si>
+    <t>股票G-20190505-广东，湖南-5000</t>
   </si>
 </sst>
 </file>
@@ -2983,8 +2995,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -2996,9 +3008,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3012,6 +3024,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -3020,7 +3040,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3034,7 +3054,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3042,7 +3062,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3057,15 +3130,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3086,59 +3151,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -3155,7 +3167,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3167,7 +3215,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3185,37 +3329,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3227,115 +3347,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3364,11 +3376,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3388,21 +3406,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3414,11 +3417,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3441,8 +3442,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3454,10 +3466,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3466,133 +3478,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3946,10 +3958,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D501"/>
+  <dimension ref="A1:D503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A462" workbookViewId="0">
-      <selection activeCell="A499" sqref="A499:C501"/>
+    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="A502" sqref="A502:C503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9307,36 +9319,58 @@
       </c>
     </row>
     <row r="499" spans="1:3">
-      <c r="A499" s="9" t="s">
+      <c r="A499" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="B499" s="9" t="s">
+      <c r="B499" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="C499" s="9" t="s">
+      <c r="C499" s="1" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="500" spans="1:3">
-      <c r="A500" s="9" t="s">
+      <c r="A500" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="B500" s="9" t="s">
+      <c r="B500" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="C500" s="9" t="s">
+      <c r="C500" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:3">
-      <c r="A501" s="9" t="s">
+      <c r="A501" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="B501" s="9" t="s">
+      <c r="B501" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="C501" s="9" t="s">
-        <v>2</v>
+      <c r="C501" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="B502" s="9" t="s">
+        <v>988</v>
+      </c>
+      <c r="C502" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="9" t="s">
+        <v>989</v>
+      </c>
+      <c r="B503" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="C503" s="9" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/sh模型统计.xlsx
+++ b/sh模型统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="1005">
   <si>
     <t>dt431</t>
   </si>
@@ -2987,6 +2987,48 @@
   </si>
   <si>
     <t>股票G-20190505-广东，湖南-5000</t>
+  </si>
+  <si>
+    <t>dt1565</t>
+  </si>
+  <si>
+    <t>投资理财GJ-20190506-全国-1W</t>
+  </si>
+  <si>
+    <t>dt1566</t>
+  </si>
+  <si>
+    <t>POS招商-20190506-拓总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1567</t>
+  </si>
+  <si>
+    <t>成人教育-20190506-深总(湖南、湖北、浙江、广东、贵州)-2天</t>
+  </si>
+  <si>
+    <t>dt1568</t>
+  </si>
+  <si>
+    <t>股票-20190506-华总(江苏省,浙江省,福建省)-1天</t>
+  </si>
+  <si>
+    <t>dt1569</t>
+  </si>
+  <si>
+    <t>现金贷-20190506-曹总(浙江省)-1天</t>
+  </si>
+  <si>
+    <t>dt1570</t>
+  </si>
+  <si>
+    <t>信用卡-20190506-晟总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1571</t>
+  </si>
+  <si>
+    <t>养生理疗-20190506-邢总(全国)-3天</t>
   </si>
 </sst>
 </file>
@@ -2994,15 +3036,113 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3017,39 +3157,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3062,67 +3173,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3131,22 +3189,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3167,7 +3209,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3179,175 +3383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3362,16 +3404,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3387,21 +3429,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3425,6 +3452,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3435,15 +3486,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3466,10 +3508,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3478,133 +3520,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3958,10 +4000,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D503"/>
+  <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="A502" sqref="A502:C503"/>
+      <selection activeCell="A504" sqref="A504:C510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9352,25 +9394,102 @@
       </c>
     </row>
     <row r="502" spans="1:3">
-      <c r="A502" s="9" t="s">
+      <c r="A502" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="B502" s="9" t="s">
+      <c r="B502" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="C502" s="9" t="s">
+      <c r="C502" s="1" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="503" spans="1:3">
-      <c r="A503" s="9" t="s">
+      <c r="A503" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="B503" s="9" t="s">
+      <c r="B503" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="C503" s="9" t="s">
+      <c r="C503" s="1" t="s">
         <v>396</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="B504" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="C504" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="B505" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="C505" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="B506" s="9" t="s">
+        <v>996</v>
+      </c>
+      <c r="C506" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="B507" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="C507" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="B508" s="9" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C508" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B509" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C509" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="9" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B510" s="9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C510" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/sh模型统计.xlsx
+++ b/sh模型统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="1013">
   <si>
     <t>dt431</t>
   </si>
@@ -3029,6 +3029,30 @@
   </si>
   <si>
     <t>养生理疗-20190506-邢总(全国)-3天</t>
+  </si>
+  <si>
+    <t>dt1579</t>
+  </si>
+  <si>
+    <t>保健-20190507-邢总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1580</t>
+  </si>
+  <si>
+    <t>电商-20190507-综合(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1583</t>
+  </si>
+  <si>
+    <t>借贷-20190507-王总(浙江、福建)-1天</t>
+  </si>
+  <si>
+    <t>dt1584</t>
+  </si>
+  <si>
+    <t>汽车-20190507-邢总(陕西、青海)-2天</t>
   </si>
 </sst>
 </file>
@@ -3036,10 +3060,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3050,15 +3074,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3072,8 +3090,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3089,14 +3137,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3104,30 +3144,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3142,32 +3173,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3180,15 +3204,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3209,18 +3233,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3233,13 +3245,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3263,7 +3329,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3281,19 +3395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3305,91 +3407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3400,6 +3424,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3418,6 +3451,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3428,39 +3470,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3490,6 +3499,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3508,10 +3532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3520,133 +3544,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4000,10 +4024,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D514"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="A504" sqref="A504:C510"/>
+      <selection activeCell="A511" sqref="A511:C514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9416,79 +9440,123 @@
       </c>
     </row>
     <row r="504" spans="1:3">
-      <c r="A504" s="9" t="s">
+      <c r="A504" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="B504" s="9" t="s">
+      <c r="B504" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="C504" s="9" t="s">
+      <c r="C504" s="1" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="505" spans="1:3">
-      <c r="A505" s="9" t="s">
+      <c r="A505" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="B505" s="9" t="s">
+      <c r="B505" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="C505" s="9" t="s">
+      <c r="C505" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:3">
-      <c r="A506" s="9" t="s">
+      <c r="A506" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="B506" s="9" t="s">
+      <c r="B506" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="C506" s="9" t="s">
+      <c r="C506" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:3">
-      <c r="A507" s="9" t="s">
+      <c r="A507" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="B507" s="9" t="s">
+      <c r="B507" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="C507" s="9" t="s">
+      <c r="C507" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:3">
-      <c r="A508" s="9" t="s">
+      <c r="A508" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="B508" s="9" t="s">
+      <c r="B508" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="C508" s="9" t="s">
+      <c r="C508" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:3">
-      <c r="A509" s="9" t="s">
+      <c r="A509" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="B509" s="9" t="s">
+      <c r="B509" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="C509" s="9" t="s">
+      <c r="C509" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:3">
-      <c r="A510" s="9" t="s">
+      <c r="A510" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="B510" s="9" t="s">
+      <c r="B510" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="C510" s="9" t="s">
+      <c r="C510" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B511" s="9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C511" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B512" s="9" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C512" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" s="9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B513" s="9" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C513" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="9" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B514" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C514" s="9" t="s">
         <v>2</v>
       </c>
     </row>

--- a/sh模型统计.xlsx
+++ b/sh模型统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="1026">
   <si>
     <t>dt431</t>
   </si>
@@ -3053,6 +3053,45 @@
   </si>
   <si>
     <t>汽车-20190507-邢总(陕西、青海)-2天</t>
+  </si>
+  <si>
+    <t>dt1598</t>
+  </si>
+  <si>
+    <t>车型-20190508-全国-1天</t>
+  </si>
+  <si>
+    <t>dt1599</t>
+  </si>
+  <si>
+    <t>车型GQ-20190508-全国-1天</t>
+  </si>
+  <si>
+    <t>dt1604</t>
+  </si>
+  <si>
+    <t>dt1600</t>
+  </si>
+  <si>
+    <t>POS-20190508-张总(全国)-5天</t>
+  </si>
+  <si>
+    <t>dt1601</t>
+  </si>
+  <si>
+    <t>奶茶加盟-20190508-艾总(全国)-3天</t>
+  </si>
+  <si>
+    <t>dt1602</t>
+  </si>
+  <si>
+    <t>现金贷-20190508-曹总(浙江)-1天</t>
+  </si>
+  <si>
+    <t>dt1603</t>
+  </si>
+  <si>
+    <t>装修-20190508-邢总(四川)-5天</t>
   </si>
 </sst>
 </file>
@@ -3061,8 +3100,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -3074,9 +3113,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3090,28 +3152,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3127,45 +3197,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3179,6 +3212,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -3187,11 +3234,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3203,16 +3250,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3233,7 +3272,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3245,7 +3332,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3257,31 +3392,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3293,43 +3428,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3341,79 +3452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3424,6 +3463,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3454,8 +3508,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3475,30 +3529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3510,6 +3540,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3532,10 +3571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3544,137 +3583,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3700,9 +3739,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4024,10 +4060,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D514"/>
+  <dimension ref="A1:D521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="A511" sqref="A511:C514"/>
+    <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
+      <selection activeCell="A517" sqref="A517:C517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9517,46 +9553,123 @@
       </c>
     </row>
     <row r="511" spans="1:3">
-      <c r="A511" s="9" t="s">
+      <c r="A511" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="B511" s="9" t="s">
+      <c r="B511" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="C511" s="9" t="s">
+      <c r="C511" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:3">
-      <c r="A512" s="9" t="s">
+      <c r="A512" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="B512" s="9" t="s">
+      <c r="B512" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="C512" s="9" t="s">
+      <c r="C512" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:3">
-      <c r="A513" s="9" t="s">
+      <c r="A513" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="B513" s="9" t="s">
+      <c r="B513" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="C513" s="9" t="s">
+      <c r="C513" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:3">
-      <c r="A514" s="9" t="s">
+      <c r="A514" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="B514" s="9" t="s">
+      <c r="B514" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="C514" s="9" t="s">
+      <c r="C514" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C521" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/sh模型统计.xlsx
+++ b/sh模型统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="1028">
   <si>
     <t>dt431</t>
   </si>
@@ -3092,6 +3092,12 @@
   </si>
   <si>
     <t>装修-20190508-邢总(四川)-5天</t>
+  </si>
+  <si>
+    <t>dt1610</t>
+  </si>
+  <si>
+    <t>POS招商-20190509-宁总(全国)-1天</t>
   </si>
 </sst>
 </file>
@@ -3100,14 +3106,53 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3121,11 +3166,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3134,21 +3185,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3166,8 +3202,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3181,6 +3234,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -3189,69 +3256,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3272,7 +3278,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3284,13 +3296,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3302,19 +3332,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3332,7 +3356,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3344,13 +3392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3362,19 +3404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3386,43 +3416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3434,7 +3428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3446,7 +3446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3466,17 +3472,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3508,8 +3525,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3530,16 +3547,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3547,19 +3564,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3571,10 +3577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3583,137 +3589,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3739,6 +3745,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4060,10 +4069,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D521"/>
+  <dimension ref="A1:D522"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
-      <selection activeCell="A517" sqref="A517:C517"/>
+      <selection activeCell="A522" sqref="A522:C522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9673,6 +9682,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="522" spans="1:3">
+      <c r="A522" s="9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B522" s="9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C522" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/sh模型统计.xlsx
+++ b/sh模型统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="1044">
   <si>
     <t>dt431</t>
   </si>
@@ -3098,6 +3098,54 @@
   </si>
   <si>
     <t>POS招商-20190509-宁总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1619</t>
+  </si>
+  <si>
+    <t>POS机招商G-20190510-全国</t>
+  </si>
+  <si>
+    <t>dt1620</t>
+  </si>
+  <si>
+    <t>成人教育-20190510-武总(江西、湖南、湖北、安徽、河南)-2天</t>
+  </si>
+  <si>
+    <t>dt1621</t>
+  </si>
+  <si>
+    <t>代理记账-20190510-智总(山东)-3天</t>
+  </si>
+  <si>
+    <t>dt1622</t>
+  </si>
+  <si>
+    <t>股票-20190510-霸总(辽宁、黑龙江、河北)-2天</t>
+  </si>
+  <si>
+    <t>dt1623</t>
+  </si>
+  <si>
+    <t>理财-20190510-拓总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1624</t>
+  </si>
+  <si>
+    <t>美妆-20190510-凌总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1625</t>
+  </si>
+  <si>
+    <t>现金贷-20190510-曹总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1626</t>
+  </si>
+  <si>
+    <t>小额贷款-20190510-帮总(上海)-3天</t>
   </si>
 </sst>
 </file>
@@ -3105,84 +3153,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3202,9 +3181,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3218,31 +3256,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3256,8 +3279,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3278,7 +3326,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3290,13 +3344,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3308,7 +3410,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3320,7 +3446,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3332,61 +3488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3398,67 +3500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3474,11 +3522,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3493,54 +3539,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3565,7 +3563,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3577,10 +3625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3589,133 +3637,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4069,10 +4117,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D522"/>
+  <dimension ref="A1:D530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522:C522"/>
+    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
+      <selection activeCell="A523" sqref="A523:C530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9683,13 +9731,101 @@
       </c>
     </row>
     <row r="522" spans="1:3">
-      <c r="A522" s="9" t="s">
+      <c r="A522" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B522" s="9" t="s">
+      <c r="B522" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="C522" s="9" t="s">
+      <c r="C522" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B523" s="9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C523" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" s="9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B524" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C524" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B525" s="9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C525" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B526" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C526" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B527" s="9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C527" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B528" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C528" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B529" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C529" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B530" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C530" s="9" t="s">
         <v>2</v>
       </c>
     </row>

--- a/sh模型统计.xlsx
+++ b/sh模型统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="1060">
   <si>
     <t>dt431</t>
   </si>
@@ -3146,6 +3146,54 @@
   </si>
   <si>
     <t>小额贷款-20190510-帮总(上海)-3天</t>
+  </si>
+  <si>
+    <t>dt1637</t>
+  </si>
+  <si>
+    <t>汽车昂科拉2018-20190513-全国-3天</t>
+  </si>
+  <si>
+    <t>dt1638</t>
+  </si>
+  <si>
+    <t>汽车比亚迪e1-20190513-全国-3天</t>
+  </si>
+  <si>
+    <t>dt1639</t>
+  </si>
+  <si>
+    <t>汽车别克-20190513-全国-3天</t>
+  </si>
+  <si>
+    <t>dt1640</t>
+  </si>
+  <si>
+    <t>汽车东风日产轩逸-20190513-全国-3天</t>
+  </si>
+  <si>
+    <t>dt1641</t>
+  </si>
+  <si>
+    <t>汽车上汽荣威i6plus-20190513-全国-3天</t>
+  </si>
+  <si>
+    <t>dt1642</t>
+  </si>
+  <si>
+    <t>汽车雪佛兰-20190513-全国-3天</t>
+  </si>
+  <si>
+    <t>dt1645</t>
+  </si>
+  <si>
+    <t>股票配资-20190513-张总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1646</t>
+  </si>
+  <si>
+    <t>理财-20190513-拓总(全国)-1天</t>
   </si>
 </sst>
 </file>
@@ -3153,9 +3201,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -3164,64 +3212,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3241,13 +3231,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -3258,7 +3241,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3271,9 +3254,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3287,9 +3322,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3303,9 +3352,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3326,19 +3374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3350,49 +3398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3410,7 +3416,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3428,37 +3524,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3470,43 +3548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3523,67 +3571,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3617,6 +3606,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3625,10 +3673,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3637,133 +3685,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4117,10 +4165,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D530"/>
+  <dimension ref="A1:D538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
-      <selection activeCell="A523" sqref="A523:C530"/>
+    <sheetView tabSelected="1" topLeftCell="A509" workbookViewId="0">
+      <selection activeCell="A537" sqref="A537:C538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9742,90 +9790,178 @@
       </c>
     </row>
     <row r="523" spans="1:3">
-      <c r="A523" s="9" t="s">
+      <c r="A523" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="B523" s="9" t="s">
+      <c r="B523" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="C523" s="9" t="s">
+      <c r="C523" s="1" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="524" spans="1:3">
-      <c r="A524" s="9" t="s">
+      <c r="A524" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="B524" s="9" t="s">
+      <c r="B524" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="C524" s="9" t="s">
+      <c r="C524" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:3">
-      <c r="A525" s="9" t="s">
+      <c r="A525" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="B525" s="9" t="s">
+      <c r="B525" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="C525" s="9" t="s">
+      <c r="C525" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:3">
-      <c r="A526" s="9" t="s">
+      <c r="A526" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="B526" s="9" t="s">
+      <c r="B526" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="C526" s="9" t="s">
+      <c r="C526" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:3">
-      <c r="A527" s="9" t="s">
+      <c r="A527" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="B527" s="9" t="s">
+      <c r="B527" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="C527" s="9" t="s">
+      <c r="C527" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:3">
-      <c r="A528" s="9" t="s">
+      <c r="A528" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="B528" s="9" t="s">
+      <c r="B528" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="C528" s="9" t="s">
+      <c r="C528" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:3">
-      <c r="A529" s="9" t="s">
+      <c r="A529" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="B529" s="9" t="s">
+      <c r="B529" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="C529" s="9" t="s">
+      <c r="C529" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:3">
-      <c r="A530" s="9" t="s">
+      <c r="A530" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="B530" s="9" t="s">
+      <c r="B530" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="C530" s="9" t="s">
+      <c r="C530" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B537" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C537" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B538" s="9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C538" s="9" t="s">
         <v>2</v>
       </c>
     </row>

--- a/sh模型统计.xlsx
+++ b/sh模型统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="1072">
   <si>
     <t>dt431</t>
   </si>
@@ -3194,6 +3194,42 @@
   </si>
   <si>
     <t>理财-20190513-拓总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1652</t>
+  </si>
+  <si>
+    <t>手游1G-20190514-全国-1天（5W）</t>
+  </si>
+  <si>
+    <t>dt1653</t>
+  </si>
+  <si>
+    <t>手游2G-20190514-全国（5W）</t>
+  </si>
+  <si>
+    <t>dt1655</t>
+  </si>
+  <si>
+    <t>CMA培训-20190514-华总(全国)-3天</t>
+  </si>
+  <si>
+    <t>dt1656</t>
+  </si>
+  <si>
+    <t>股票-20190514-华总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1657</t>
+  </si>
+  <si>
+    <t>美妆-20190514-凌总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1658</t>
+  </si>
+  <si>
+    <t>消防考证-20190514-深总(湖南、湖北、浙江、广东、贵州、河南)-3天</t>
   </si>
 </sst>
 </file>
@@ -3203,8 +3239,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3215,11 +3251,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3231,8 +3266,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3248,83 +3374,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3337,23 +3387,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3374,7 +3410,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3386,7 +3470,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3398,7 +3554,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3410,49 +3572,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3464,97 +3590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3568,11 +3604,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3592,6 +3634,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3607,17 +3682,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3632,39 +3701,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3673,10 +3709,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3685,133 +3721,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4165,10 +4201,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D538"/>
+  <dimension ref="A1:D544"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A509" workbookViewId="0">
-      <selection activeCell="A537" sqref="A537:C538"/>
+      <selection activeCell="A541" sqref="A541:C544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9944,24 +9980,90 @@
       </c>
     </row>
     <row r="537" spans="1:3">
-      <c r="A537" s="9" t="s">
+      <c r="A537" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="B537" s="9" t="s">
+      <c r="B537" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="C537" s="9" t="s">
+      <c r="C537" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:3">
-      <c r="A538" s="9" t="s">
+      <c r="A538" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="B538" s="9" t="s">
+      <c r="B538" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="C538" s="9" t="s">
+      <c r="C538" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B539" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C539" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B540" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C540" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B541" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C541" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B542" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C542" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" s="9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B543" s="9" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C543" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B544" s="9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C544" s="9" t="s">
         <v>2</v>
       </c>
     </row>

--- a/sh模型统计.xlsx
+++ b/sh模型统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="1074">
   <si>
     <t>dt431</t>
   </si>
@@ -3230,6 +3230,12 @@
   </si>
   <si>
     <t>消防考证-20190514-深总(湖南、湖北、浙江、广东、贵州、河南)-3天</t>
+  </si>
+  <si>
+    <t>dt1665</t>
+  </si>
+  <si>
+    <t>抵押贷款-20190515-通用(广东省)-1天</t>
   </si>
 </sst>
 </file>
@@ -3237,8 +3243,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3251,8 +3257,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3266,8 +3318,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3282,92 +3388,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3375,21 +3396,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3410,7 +3416,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3422,13 +3440,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3440,37 +3482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3494,13 +3506,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3512,43 +3530,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3566,31 +3584,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3601,21 +3607,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3634,17 +3625,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3654,15 +3639,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3684,6 +3660,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -3691,13 +3678,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3709,10 +3715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3721,137 +3727,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3877,9 +3883,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4201,10 +4204,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D544"/>
+  <dimension ref="A1:D545"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A509" workbookViewId="0">
-      <selection activeCell="A541" sqref="A541:C544"/>
+      <selection activeCell="A546" sqref="$A546:$XFD546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -10002,68 +10005,79 @@
       </c>
     </row>
     <row r="539" spans="1:3">
-      <c r="A539" s="9" t="s">
+      <c r="A539" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="B539" s="9" t="s">
+      <c r="B539" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="C539" s="9" t="s">
+      <c r="C539" s="1" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="540" spans="1:3">
-      <c r="A540" s="9" t="s">
+      <c r="A540" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="B540" s="9" t="s">
+      <c r="B540" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="C540" s="9" t="s">
+      <c r="C540" s="1" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="541" spans="1:3">
-      <c r="A541" s="9" t="s">
+      <c r="A541" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="B541" s="9" t="s">
+      <c r="B541" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="C541" s="9" t="s">
+      <c r="C541" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:3">
-      <c r="A542" s="9" t="s">
+      <c r="A542" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="B542" s="9" t="s">
+      <c r="B542" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="C542" s="9" t="s">
+      <c r="C542" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:3">
-      <c r="A543" s="9" t="s">
+      <c r="A543" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="B543" s="9" t="s">
+      <c r="B543" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="C543" s="9" t="s">
+      <c r="C543" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:3">
-      <c r="A544" s="9" t="s">
+      <c r="A544" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="B544" s="9" t="s">
+      <c r="B544" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="C544" s="9" t="s">
+      <c r="C544" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C545" s="1" t="s">
         <v>2</v>
       </c>
     </row>
